--- a/posesiones/1381270.xlsx
+++ b/posesiones/1381270.xlsx
@@ -1892,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>14</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>23</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>23</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>13</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>24</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>9</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>18</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>13</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>11</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>12</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>27</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>6</v>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R34">
         <v>18</v>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R35">
         <v>18</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R37">
         <v>14</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>16</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>20</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R45">
         <v>14</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R48">
         <v>12</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R50">
         <v>22</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>15</v>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R54">
         <v>12</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>16</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R59">
         <v>25</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4807,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R61">
         <v>11</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R66">
         <v>9</v>
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R67">
         <v>24</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R69">
         <v>8</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R77">
         <v>13</v>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R85">
         <v>13</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R95">
         <v>27</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>6</v>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>20</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R104">
         <v>6</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7006,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R106">
         <v>12</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R108">
         <v>11</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R110">
         <v>19</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7453,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>16</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>5</v>
@@ -7597,10 +7597,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7735,10 +7735,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7882,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R124">
         <v>11</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7985,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R126">
         <v>11</v>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R128">
         <v>25</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R130">
         <v>20</v>
@@ -8238,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R131">
         <v>22</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R132">
         <v>18</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8441,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R135">
         <v>34</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R137">
         <v>6</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R144">
         <v>18</v>
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R145">
         <v>11</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9026,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R147">
         <v>21</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R149">
         <v>12</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9514,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R157">
         <v>24</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9664,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R160">
         <v>17</v>
@@ -9717,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R161">
         <v>24</v>
@@ -9770,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10008,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R167">
         <v>16</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10111,7 +10111,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R169">
         <v>23</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R171">
         <v>10</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10646,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R180">
         <v>14</v>
@@ -10699,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R181">
         <v>19</v>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R183">
         <v>17</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R186">
         <v>13</v>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R190">
         <v>7</v>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11290,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11340,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11390,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R195">
         <v>12</v>
@@ -11440,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11637,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R200">
         <v>30</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11740,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R202">
         <v>9</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R204">
         <v>13</v>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11940,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12128,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12178,7 +12178,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R211">
         <v>7</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12419,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12469,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R217">
         <v>23</v>
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R219">
         <v>14</v>
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R221">
         <v>20</v>
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R223">
         <v>17</v>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12866,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13007,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13057,7 +13057,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R229">
         <v>53</v>
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13433,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13953,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R248">
         <v>6</v>
@@ -14003,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14053,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R250">
         <v>1</v>
@@ -14097,10 +14097,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14147,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14194,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14288,7 +14288,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14382,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14664,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14711,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14764,7 +14764,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R265">
         <v>-600</v>
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14861,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14949,10 +14949,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q269">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15002,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R270">
         <v>6</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R272">
         <v>25</v>
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R274">
         <v>7</v>
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15302,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15349,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15399,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R278">
         <v>19</v>
@@ -15452,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15502,7 +15502,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R280">
         <v>6</v>
@@ -15552,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15602,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R282">
         <v>24</v>
@@ -15655,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R284">
         <v>7</v>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15846,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R289">
         <v>30</v>
@@ -15993,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R291">
         <v>19</v>
@@ -16093,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R297">
         <v>20</v>
@@ -16384,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R298">
         <v>12</v>
@@ -16434,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R301">
         <v>0</v>
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16681,7 +16681,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R304">
         <v>32</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R305">
         <v>16</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17072,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R312">
         <v>28</v>
@@ -17122,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R315">
         <v>10</v>
@@ -17272,7 +17272,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R316">
         <v>16</v>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17372,7 +17372,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R318">
         <v>19</v>
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17475,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R320">
         <v>17</v>
@@ -17528,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17622,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17672,7 +17672,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R324">
         <v>8</v>
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17819,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17866,7 +17866,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17916,7 +17916,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R329">
         <v>25</v>
@@ -17966,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18107,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18348,7 +18348,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R338">
         <v>29</v>
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18495,7 +18495,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R342">
         <v>29</v>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18645,7 +18645,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R344">
         <v>12</v>
@@ -18698,7 +18698,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R345">
         <v>24</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18842,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19080,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>16</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R355">
         <v>18</v>
@@ -19233,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19283,7 +19283,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R357">
         <v>8</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R358">
         <v>21</v>
@@ -19386,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19436,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R360">
         <v>21</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19536,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R362">
         <v>23</v>
@@ -19586,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19730,7 +19730,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R366">
         <v>17</v>
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19827,7 +19827,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19924,7 +19924,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R370">
         <v>11</v>
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20024,7 +20024,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R372">
         <v>21</v>
@@ -20077,7 +20077,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20127,7 +20127,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R374">
         <v>1</v>
@@ -20171,10 +20171,10 @@
         <v>1</v>
       </c>
       <c r="P375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q375">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20309,10 +20309,10 @@
         <v>1</v>
       </c>
       <c r="P378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q378">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20359,7 +20359,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R379">
         <v>1</v>
@@ -20409,7 +20409,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20503,7 +20503,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20553,7 +20553,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R383">
         <v>19</v>
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20700,7 +20700,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20800,7 +20800,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R388">
         <v>25</v>
@@ -20853,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20903,7 +20903,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R390">
         <v>6</v>
@@ -20956,7 +20956,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R391">
         <v>19</v>
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21056,7 +21056,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R393">
         <v>19</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21156,7 +21156,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R395">
         <v>5</v>
@@ -21206,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21253,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21300,7 +21300,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21347,7 +21347,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21397,7 +21397,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R400">
         <v>4</v>
@@ -21447,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21497,7 +21497,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R402">
         <v>11</v>
@@ -21550,7 +21550,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R403">
         <v>19</v>
@@ -21603,7 +21603,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21653,7 +21653,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R405">
         <v>6</v>
@@ -21703,7 +21703,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21800,7 +21800,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21847,7 +21847,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21894,7 +21894,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21941,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22085,7 +22085,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R414">
         <v>30</v>
@@ -22135,7 +22135,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22182,7 +22182,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22229,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22279,7 +22279,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R418">
         <v>17</v>
@@ -22329,7 +22329,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22379,7 +22379,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R420">
         <v>9</v>
@@ -22429,7 +22429,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22476,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22523,7 +22523,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22573,7 +22573,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R424">
         <v>0</v>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22676,7 +22676,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R426">
         <v>17</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22776,7 +22776,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22826,7 +22826,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R429">
         <v>3</v>
@@ -22879,7 +22879,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R430">
         <v>7</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22979,7 +22979,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R432">
         <v>3</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23073,7 +23073,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23170,7 +23170,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R436">
         <v>14</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23367,7 +23367,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R440">
         <v>23</v>
@@ -23420,7 +23420,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R441">
         <v>12</v>
@@ -23473,7 +23473,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R442">
         <v>12</v>
@@ -23526,7 +23526,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23576,7 +23576,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R444">
         <v>8</v>
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23679,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R446">
         <v>11</v>
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23779,7 +23779,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R448">
         <v>18</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23970,7 +23970,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24064,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24114,7 +24114,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R455">
         <v>1</v>
@@ -24164,7 +24164,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24258,7 +24258,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24355,7 +24355,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R460">
         <v>20</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24646,7 +24646,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R466">
         <v>1</v>
@@ -24699,7 +24699,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24749,7 +24749,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R468">
         <v>16</v>
@@ -24799,7 +24799,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24849,7 +24849,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R470">
         <v>26</v>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24949,7 +24949,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R472">
         <v>14</v>
@@ -24999,7 +24999,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25096,7 +25096,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R475">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25190,7 +25190,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25240,7 +25240,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25290,7 +25290,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R479">
         <v>22</v>
@@ -25343,7 +25343,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R480">
         <v>25</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25443,7 +25443,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25537,7 +25537,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25587,7 +25587,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R485">
         <v>9</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25687,7 +25687,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R487">
         <v>15</v>
@@ -25737,7 +25737,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25784,7 +25784,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25881,7 +25881,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R491">
         <v>43</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25981,7 +25981,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R493">
         <v>26</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26084,7 +26084,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R495">
         <v>8</v>
@@ -26134,7 +26134,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26184,7 +26184,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R497">
         <v>16</v>
@@ -26234,7 +26234,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26284,7 +26284,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R499">
         <v>3</v>
@@ -26334,7 +26334,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26434,7 +26434,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R502">
         <v>25</v>
@@ -26478,10 +26478,10 @@
         <v>1</v>
       </c>
       <c r="P503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q503">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
